--- a/glmm_pql/resultados_modelos_glmmpql.xlsx
+++ b/glmm_pql/resultados_modelos_glmmpql.xlsx
@@ -446,24 +446,24 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.00487</v>
+        <v>1.0048</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.00133 – 1.00843</t>
+          <t>1.00121 – 1.00840</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="E2">
-        <v>1.16446</v>
+        <v>1.16203</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.07807 – 1.25778</t>
+          <t>1.07342 – 1.25795</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -472,11 +472,11 @@
         </is>
       </c>
       <c r="H2">
-        <v>0.98424</v>
+        <v>0.98446</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.97875 – 0.98976</t>
+          <t>0.97890 – 0.99005</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -485,29 +485,29 @@
         </is>
       </c>
       <c r="K2">
-        <v>0.80963</v>
+        <v>0.81136</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.69822 – 0.93881</t>
+          <t>0.69754 – 0.94374</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="N2">
-        <v>1.00741</v>
+        <v>1.00734</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.00119 – 1.01366</t>
+          <t>1.00105 – 1.01367</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.0254</t>
         </is>
       </c>
     </row>
@@ -518,11 +518,11 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.01339</v>
+        <v>1.01321</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.00980 – 1.01699</t>
+          <t>1.00981 – 1.01662</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,11 +531,11 @@
         </is>
       </c>
       <c r="E3">
-        <v>1.17401</v>
+        <v>1.17162</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.08789 – 1.26695</t>
+          <t>1.08768 – 1.26203</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -544,11 +544,11 @@
         </is>
       </c>
       <c r="H3">
-        <v>0.98298</v>
+        <v>0.98331</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.97743 – 0.98856</t>
+          <t>0.97806 – 0.98859</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -557,29 +557,29 @@
         </is>
       </c>
       <c r="K3">
-        <v>0.77032</v>
+        <v>0.77743</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.66384 – 0.89389</t>
+          <t>0.67440 – 0.89621</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
       <c r="N3">
-        <v>0.99722</v>
+        <v>0.99682</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.99108 – 1.00341</t>
+          <t>0.99099 – 1.00270</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.3814</t>
+          <t>0.2927</t>
         </is>
       </c>
     </row>
@@ -590,68 +590,68 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.00856</v>
+        <v>1.00869</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.00228 – 1.01487</t>
+          <t>1.00276 – 1.01465</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="E4">
-        <v>1.17638</v>
+        <v>1.14871</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.05073 – 1.31705</t>
+          <t>1.02606 – 1.28602</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="H4">
-        <v>0.99365</v>
+        <v>0.99456</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.98344 – 1.00396</t>
+          <t>0.98499 – 1.00423</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2305</t>
+          <t>0.2733</t>
         </is>
       </c>
       <c r="K4">
-        <v>1.0671</v>
+        <v>1.05498</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.82156 – 1.38602</t>
+          <t>0.82379 – 1.35106</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.628</t>
+          <t>0.6729</t>
         </is>
       </c>
       <c r="N4">
-        <v>1.00821</v>
+        <v>1.00795</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.99760 – 1.01893</t>
+          <t>0.99783 – 1.01816</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.1348</t>
+          <t>0.1289</t>
         </is>
       </c>
     </row>
@@ -662,11 +662,11 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.01594</v>
+        <v>1.01569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.01099 – 1.02090</t>
+          <t>1.01120 – 1.02019</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -675,11 +675,11 @@
         </is>
       </c>
       <c r="E5">
-        <v>1.35717</v>
+        <v>1.37942</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.23070 – 1.49662</t>
+          <t>1.25688 – 1.51390</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -688,42 +688,42 @@
         </is>
       </c>
       <c r="H5">
-        <v>0.98729</v>
+        <v>0.9865</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.97949 – 0.99515</t>
+          <t>0.97947 – 0.99357</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
       <c r="K5">
-        <v>0.99697</v>
+        <v>1.02654</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.81262 – 1.22315</t>
+          <t>0.85184 – 1.23708</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.9769</t>
+          <t>0.784</t>
         </is>
       </c>
       <c r="N5">
-        <v>1.0033</v>
+        <v>1.00204</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.99492 – 1.01176</t>
+          <t>0.99437 – 1.00976</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.4436</t>
+          <t>0.6053</t>
         </is>
       </c>
     </row>
@@ -734,68 +734,68 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.00785</v>
+        <v>1.00767</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.00279 – 1.01293</t>
+          <t>1.00307 – 1.01229</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="E6">
-        <v>1.12005</v>
+        <v>1.11082</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.00829 – 1.24418</t>
+          <t>1.00547 – 1.22721</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.0428</t>
         </is>
       </c>
       <c r="H6">
-        <v>0.98819</v>
+        <v>0.98867</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.98026 – 0.99618</t>
+          <t>0.98149 – 0.99590</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="K6">
-        <v>0.87269</v>
+        <v>0.88165</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.70706 – 1.07713</t>
+          <t>0.72683 – 1.06943</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.2092</t>
+          <t>0.2056</t>
         </is>
       </c>
       <c r="N6">
-        <v>1.00104</v>
+        <v>1.00019</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.99233 – 1.00983</t>
+          <t>0.99223 – 1.00821</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.8161</t>
+          <t>0.963</t>
         </is>
       </c>
     </row>
@@ -806,11 +806,11 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.02384</v>
+        <v>1.02427</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.01551 – 1.03224</t>
+          <t>1.01635 – 1.03225</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -819,11 +819,11 @@
         </is>
       </c>
       <c r="E7">
-        <v>1.56486</v>
+        <v>1.56631</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.36390 – 1.79542</t>
+          <t>1.36813 – 1.79319</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="H7">
-        <v>0.95681</v>
+        <v>0.95613</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.94359 – 0.97021</t>
+          <t>0.94354 – 0.96888</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -845,11 +845,11 @@
         </is>
       </c>
       <c r="K7">
-        <v>0.52886</v>
+        <v>0.52085</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.37371 – 0.74842</t>
+          <t>0.37421 – 0.72497</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -858,16 +858,16 @@
         </is>
       </c>
       <c r="N7">
-        <v>0.98839</v>
+        <v>0.9888400000000001</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.97512 – 1.00184</t>
+          <t>0.97611 – 1.00173</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.0952</t>
+          <t>0.0943</t>
         </is>
       </c>
     </row>
@@ -878,63 +878,63 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.00183</v>
+        <v>1.00209</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.99659 – 1.00711</t>
+          <t>0.99754 – 1.00667</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.4965</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="E8">
-        <v>0.83725</v>
+        <v>0.81128</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.74866 – 0.93632</t>
+          <t>0.73296 – 0.89797</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
       <c r="H8">
-        <v>1.00755</v>
+        <v>1.00881</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.99912 – 1.01604</t>
+          <t>1.00155 – 1.01612</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0839</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="K8">
-        <v>1.02726</v>
+        <v>1.00302</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.82438 – 1.28007</t>
+          <t>0.82737 – 1.21597</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.8114</t>
+          <t>0.9756</t>
         </is>
       </c>
       <c r="N8">
-        <v>1.02087</v>
+        <v>1.02097</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.01158 – 1.03024</t>
+          <t>1.01288 – 1.02912</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.01657</v>
+        <v>1.01565</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.00692 – 1.02632</t>
+          <t>1.00706 – 1.02431</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>&lt; 0.001</t>
         </is>
       </c>
       <c r="E9">
-        <v>0.46097</v>
+        <v>0.45167</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.38522 – 0.55162</t>
+          <t>0.38022 – 0.53655</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -976,11 +976,11 @@
         </is>
       </c>
       <c r="H9">
-        <v>1.02854</v>
+        <v>1.03147</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.01248 – 1.04485</t>
+          <t>1.01728 – 1.04586</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -989,29 +989,29 @@
         </is>
       </c>
       <c r="K9">
-        <v>0.86312</v>
+        <v>0.86853</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.57849 – 1.28779</t>
+          <t>0.60755 – 1.24163</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.4734</t>
+          <t>0.4424</t>
         </is>
       </c>
       <c r="N9">
-        <v>1.00481</v>
+        <v>1.00671</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.98861 – 1.02128</t>
+          <t>0.99206 – 1.02157</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.5648</t>
+          <t>0.3745</t>
         </is>
       </c>
     </row>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="B10">
-        <v>1.00757</v>
+        <v>1.00737</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.00338 – 1.01178</t>
+          <t>1.00329 – 1.01147</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1035,11 +1035,11 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.79793</v>
+        <v>0.79518</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.72718 – 0.87555</t>
+          <t>0.72490 – 0.87228</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1048,42 +1048,42 @@
         </is>
       </c>
       <c r="H10">
-        <v>1.00629</v>
+        <v>1.00675</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.99971 – 1.01292</t>
+          <t>1.00033 – 1.01321</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.0656</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="K10">
-        <v>0.85429</v>
+        <v>0.86116</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.71747 – 1.01721</t>
+          <t>0.72512 – 1.02272</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.0816</t>
+          <t>0.0933</t>
         </is>
       </c>
       <c r="N10">
-        <v>1.00564</v>
+        <v>1.00534</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.99834 – 1.01299</t>
+          <t>0.99824 – 1.01250</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.1349</t>
+          <t>0.1456</t>
         </is>
       </c>
     </row>
@@ -1094,11 +1094,11 @@
         </is>
       </c>
       <c r="B11">
-        <v>1.02193</v>
+        <v>1.02124</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.01747 – 1.02640</t>
+          <t>1.01758 – 1.02490</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1107,24 +1107,24 @@
         </is>
       </c>
       <c r="E11">
-        <v>1.04985</v>
+        <v>1.05781</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.95738 – 1.15124</t>
+          <t>0.97676 – 1.14559</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3048</t>
+          <t>0.1718</t>
         </is>
       </c>
       <c r="H11">
-        <v>0.98246</v>
+        <v>0.9832</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.97566 – 0.98930</t>
+          <t>0.97770 – 0.98873</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1133,11 +1133,11 @@
         </is>
       </c>
       <c r="K11">
-        <v>0.61633</v>
+        <v>0.63512</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.51390 – 0.73918</t>
+          <t>0.54645 – 0.73818</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="N11">
-        <v>0.99166</v>
+        <v>0.99128</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.98432 – 0.99905</t>
+          <t>0.98524 – 0.99736</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0066</t>
         </is>
       </c>
     </row>
@@ -1166,11 +1166,11 @@
         </is>
       </c>
       <c r="B12">
-        <v>1.01104</v>
+        <v>1.01096</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.00758 – 1.01452</t>
+          <t>1.00807 – 1.01386</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1179,11 +1179,11 @@
         </is>
       </c>
       <c r="E12">
-        <v>1.46517</v>
+        <v>1.44908</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.36114 – 1.57716</t>
+          <t>1.35872 – 1.54546</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1192,11 +1192,11 @@
         </is>
       </c>
       <c r="H12">
-        <v>0.96801</v>
+        <v>0.96874</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.96273 – 0.97331</t>
+          <t>0.96438 – 0.97312</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1205,11 +1205,11 @@
         </is>
       </c>
       <c r="K12">
-        <v>0.68269</v>
+        <v>0.68133</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.59128 – 0.78825</t>
+          <t>0.60358 – 0.76909</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="N12">
-        <v>0.9918400000000001</v>
+        <v>0.99177</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.98594 – 0.99778</t>
+          <t>0.98683 – 0.99675</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.0091</t>
+          <t>0.0019</t>
         </is>
       </c>
     </row>
@@ -1238,11 +1238,11 @@
         </is>
       </c>
       <c r="B13">
-        <v>1.01467</v>
+        <v>1.01445</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.01082 – 1.01854</t>
+          <t>1.01069 – 1.01823</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1251,11 +1251,11 @@
         </is>
       </c>
       <c r="E13">
-        <v>1.31655</v>
+        <v>1.32284</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.21452 – 1.42715</t>
+          <t>1.22030 – 1.43401</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1264,11 +1264,11 @@
         </is>
       </c>
       <c r="H13">
-        <v>0.98551</v>
+        <v>0.9855</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.97953 – 0.99152</t>
+          <t>0.97966 – 0.99138</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1277,29 +1277,29 @@
         </is>
       </c>
       <c r="K13">
-        <v>0.93287</v>
+        <v>0.94613</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.79546 – 1.09402</t>
+          <t>0.80868 – 1.10695</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.3958</t>
+          <t>0.4919</t>
         </is>
       </c>
       <c r="N13">
-        <v>1.00088</v>
+        <v>1.00038</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.99428 – 1.00753</t>
+          <t>0.99391 – 1.00689</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.7949</t>
+          <t>0.9099</t>
         </is>
       </c>
     </row>
@@ -1310,11 +1310,11 @@
         </is>
       </c>
       <c r="B14">
-        <v>1.00823</v>
+        <v>1.008</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.00430 – 1.01219</t>
+          <t>1.00438 – 1.01164</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1323,11 +1323,11 @@
         </is>
       </c>
       <c r="E14">
-        <v>1.21788</v>
+        <v>1.22835</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.11963 – 1.32474</t>
+          <t>1.13392 – 1.33065</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1336,11 +1336,11 @@
         </is>
       </c>
       <c r="H14">
-        <v>0.97826</v>
+        <v>0.97792</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.97217 – 0.98439</t>
+          <t>0.97233 – 0.98354</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1349,11 +1349,11 @@
         </is>
       </c>
       <c r="K14">
-        <v>0.72053</v>
+        <v>0.73689</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.61144 – 0.84910</t>
+          <t>0.63268 – 0.85826</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1362,16 +1362,16 @@
         </is>
       </c>
       <c r="N14">
-        <v>0.99609</v>
+        <v>0.99499</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.98932 – 1.00292</t>
+          <t>0.98874 – 1.00129</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.2652</t>
+          <t>0.1237</t>
         </is>
       </c>
     </row>
@@ -1382,24 +1382,24 @@
         </is>
       </c>
       <c r="B15">
-        <v>1.00663</v>
+        <v>1.00652</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.00207 – 1.01120</t>
+          <t>1.00223 – 1.01082</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="E15">
-        <v>1.17711</v>
+        <v>1.18759</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.07590 – 1.28783</t>
+          <t>1.08779 – 1.29655</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1408,11 +1408,11 @@
         </is>
       </c>
       <c r="H15">
-        <v>0.9831800000000001</v>
+        <v>0.98269</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.97593 – 0.99048</t>
+          <t>0.97588 – 0.98954</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1421,29 +1421,29 @@
         </is>
       </c>
       <c r="K15">
-        <v>0.77269</v>
+        <v>0.78722</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.63889 – 0.93451</t>
+          <t>0.65753 – 0.94248</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0114</t>
         </is>
       </c>
       <c r="N15">
-        <v>1.00403</v>
+        <v>1.00289</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.99625 – 1.01187</t>
+          <t>0.99551 – 1.01032</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.3142</t>
+          <t>0.4473</t>
         </is>
       </c>
     </row>
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.00926</v>
+        <v>1.00857</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.00574 – 1.01279</t>
+          <t>1.00567 – 1.01147</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="E16">
-        <v>1.23509</v>
+        <v>1.2543</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.14314 – 1.33444</t>
+          <t>1.17585 – 1.33799</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1480,11 +1480,11 @@
         </is>
       </c>
       <c r="H16">
-        <v>0.98298</v>
+        <v>0.98316</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.97760 – 0.98839</t>
+          <t>0.97877 – 0.98757</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1493,29 +1493,29 @@
         </is>
       </c>
       <c r="K16">
-        <v>0.86051</v>
+        <v>0.8930900000000001</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.74346 – 0.99598</t>
+          <t>0.79135 – 1.00792</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="N16">
-        <v>1.00759</v>
+        <v>1.00687</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.00146 – 1.01375</t>
+          <t>1.00182 – 1.01195</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0096</t>
         </is>
       </c>
     </row>
@@ -1526,11 +1526,11 @@
         </is>
       </c>
       <c r="B17">
-        <v>1.00848</v>
+        <v>1.00822</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.00521 – 1.01175</t>
+          <t>1.00506 – 1.01139</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1539,11 +1539,11 @@
         </is>
       </c>
       <c r="E17">
-        <v>1.2105</v>
+        <v>1.21635</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.12694 – 1.30026</t>
+          <t>1.13324 – 1.30556</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="H17">
-        <v>0.98541</v>
+        <v>0.98542</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.98039 – 0.99045</t>
+          <t>0.98056 – 0.99030</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1565,29 +1565,29 @@
         </is>
       </c>
       <c r="K17">
-        <v>0.87814</v>
+        <v>0.8928700000000001</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.76668 – 1.00581</t>
+          <t>0.78185 – 1.01966</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.065</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="N17">
-        <v>0.99793</v>
+        <v>0.99736</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.99229 – 1.00360</t>
+          <t>0.99191 – 1.00285</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.476</t>
+          <t>0.3495</t>
         </is>
       </c>
     </row>
@@ -1598,11 +1598,11 @@
         </is>
       </c>
       <c r="B18">
-        <v>1.0112</v>
+        <v>1.011</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.00781 – 1.01459</t>
+          <t>1.00773 – 1.01427</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="E18">
-        <v>1.19356</v>
+        <v>1.196</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.10985 – 1.28358</t>
+          <t>1.11303 – 1.28517</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1624,11 +1624,11 @@
         </is>
       </c>
       <c r="H18">
-        <v>0.9853499999999999</v>
+        <v>0.98545</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.98011 – 0.99062</t>
+          <t>0.98040 – 0.99052</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1637,29 +1637,29 @@
         </is>
       </c>
       <c r="K18">
-        <v>0.84323</v>
+        <v>0.8537400000000001</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.73263 – 0.97053</t>
+          <t>0.74453 – 0.97898</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.027</t>
         </is>
       </c>
       <c r="N18">
-        <v>1.0019</v>
+        <v>1.00141</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.99604 – 1.00779</t>
+          <t>0.99575 – 1.00710</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.5279</t>
+          <t>0.6281</t>
         </is>
       </c>
     </row>
